--- a/docs/excel/TBirckRefresh.xlsx
+++ b/docs/excel/TBirckRefresh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="-150" windowWidth="24465" windowHeight="12045" tabRatio="204"/>
+    <workbookView xWindow="29715" yWindow="375" windowWidth="24105" windowHeight="11085" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TBirckRefresh" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -122,53 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-240;2-120;3-120;4-120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-120;2-180;3-180;4-120;6-12;8-5;7-4;9-4;10-4;11-4</t>
-  </si>
-  <si>
-    <t>1-60;2-120;3-180;4-180;5-20;6-12;8-5</t>
-  </si>
-  <si>
-    <t>2-180;3-180;4-180;5-20;6-12;8-5;7-8;9-8;10-8;11-8</t>
-  </si>
-  <si>
-    <t>3-240;4-240;5-120;6-12;8-5</t>
-  </si>
-  <si>
-    <t>3-120;4-300;5-180;6-12;8-5</t>
-  </si>
-  <si>
-    <t>4-300;5-300;6-12;8-5</t>
-  </si>
-  <si>
-    <t>4-90;5-390;6-12;8-5;17-18;18-58;19-18;20-18</t>
-  </si>
-  <si>
-    <t>5-600;6-12;8-5;17-18;18-58;19-18;20-18</t>
-  </si>
-  <si>
-    <t>1-60;2-180;3-180;4-180;6-12;8-5;7-8;9-8;12-8;10-8;11-8</t>
-  </si>
-  <si>
-    <t>2-60;3-240;4-240;5-60;6-12;8-5;13-12;14-12;12-8;15-12;16-12</t>
-  </si>
-  <si>
-    <t>3-180;4-300;5-120;6-12;8-5;13-15;14-15;12-8;15-15;16-15</t>
-  </si>
-  <si>
-    <t>3-60;4-360;5-180;6-12;8-5;13-16;14-16;12-8;15-16;16-16</t>
-  </si>
-  <si>
-    <t>3-60;4-300;5-240;6-12;8-5;13-18;14-18;12-8;15-18;16-18</t>
-  </si>
-  <si>
-    <t>4-60;5-420;6-12;8-5;17-18;18-58;12-8;19-18;20-18</t>
-  </si>
-  <si>
-    <t>1-180;2-180;3-120;4-120;6-12;8-5</t>
+    <t>1-40;2-20;3-20;4-20;5-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A6" sqref="A6:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,8 +622,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>B6-1</f>
-        <v>999</v>
+        <v>99999999</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>31</v>
@@ -679,527 +632,96 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C30" si="0">B7-1</f>
-        <v>2999</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>5999</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>6000</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>8999</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>9000</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>12999</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>13000</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>15999</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>16000</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>18999</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>19000</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>23000</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>27999</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>28000</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>30999</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>31000</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>35999</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>36000</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>38999</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>39000</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>43999</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>44000</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>46999</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>47000</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>51999</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>52000</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>54999</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>55000</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>59999</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>60000</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>62999</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>63000</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>67999</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>68000</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>70999</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>71000</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>75999</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>76000</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>78999</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>79000</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>83999</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>84000</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>86999</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>87000</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>91999</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>92000</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>94999</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>95000</v>
-      </c>
-      <c r="C31">
-        <v>99999999</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TBirckRefresh.xlsx
+++ b/docs/excel/TBirckRefresh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="375" windowWidth="24105" windowHeight="11085" tabRatio="204"/>
+    <workbookView xWindow="465" yWindow="480" windowWidth="24105" windowHeight="11085" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TBirckRefresh" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-40;2-20;3-20;4-20;5-100</t>
+    <t>1-400;2-200;3-200;4-100;5-40;21-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TBirckRefresh.xlsx
+++ b/docs/excel/TBirckRefresh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="480" windowWidth="24105" windowHeight="11085" tabRatio="204"/>
+    <workbookView xWindow="30690" yWindow="-150" windowWidth="24465" windowHeight="12045" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TBirckRefresh" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -122,7 +122,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-400;2-200;3-200;4-100;5-40;21-6</t>
+    <t>1-240;2-120;3-120;4-120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-120;2-180;3-180;4-120;6-12;8-5;7-4;9-4;10-4;11-4</t>
+  </si>
+  <si>
+    <t>1-60;2-120;3-180;4-180;5-20;6-12;8-5</t>
+  </si>
+  <si>
+    <t>2-180;3-180;4-180;5-20;6-12;8-5;7-8;9-8;10-8;11-8</t>
+  </si>
+  <si>
+    <t>3-240;4-240;5-120;6-12;8-5</t>
+  </si>
+  <si>
+    <t>3-120;4-300;5-180;6-12;8-5</t>
+  </si>
+  <si>
+    <t>4-300;5-300;6-12;8-5</t>
+  </si>
+  <si>
+    <t>4-90;5-390;6-12;8-5;17-18;18-58;19-18;20-18</t>
+  </si>
+  <si>
+    <t>5-600;6-12;8-5;17-18;18-58;19-18;20-18</t>
+  </si>
+  <si>
+    <t>1-60;2-180;3-180;4-180;6-12;8-5;7-8;9-8;12-8;10-8;11-8</t>
+  </si>
+  <si>
+    <t>2-60;3-240;4-240;5-60;6-12;8-5;13-12;14-12;12-8;15-12;16-12</t>
+  </si>
+  <si>
+    <t>3-180;4-300;5-120;6-12;8-5;13-15;14-15;12-8;15-15;16-15</t>
+  </si>
+  <si>
+    <t>3-60;4-360;5-180;6-12;8-5;13-16;14-16;12-8;15-16;16-16</t>
+  </si>
+  <si>
+    <t>3-60;4-300;5-240;6-12;8-5;13-18;14-18;12-8;15-18;16-18</t>
+  </si>
+  <si>
+    <t>4-60;5-420;6-12;8-5;17-18;18-58;12-8;19-18;20-18</t>
+  </si>
+  <si>
+    <t>1-180;2-180;3-120;4-120;6-12;8-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,106 +668,538 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>99999999</v>
+        <f>B6-1</f>
+        <v>999</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C30" si="0">B7-1</f>
+        <v>2999</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5999</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8999</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>9000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>12999</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>13000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>15999</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>16000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>18999</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>19000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>22999</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>23000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>27999</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="5"/>
+      <c r="B14">
+        <v>28000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>30999</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="5"/>
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>31000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>35999</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="5"/>
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>36000</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>38999</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>39000</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>43999</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>44000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>46999</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>47000</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>51999</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>52000</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>54999</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>55000</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>59999</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>60000</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>62999</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>63000</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>67999</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>68000</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>70999</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>71000</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>75999</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>76000</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>78999</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>79000</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>83999</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>84000</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>86999</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>87000</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>91999</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>92000</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>94999</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>95000</v>
+      </c>
+      <c r="C31">
+        <v>99999999</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
